--- a/model_paper/confusion.xlsx
+++ b/model_paper/confusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C553D-B112-4AA7-AC95-DF1023FE7FBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E208DF-5EE5-45F4-AB61-6A179D17FBB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,13 +64,13 @@
 Class</t>
   </si>
   <si>
-    <t>Trained</t>
-  </si>
-  <si>
-    <t>Naïve</t>
-  </si>
-  <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Validation</t>
   </si>
 </sst>
 </file>
@@ -244,47 +244,47 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,7 +570,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -591,14 +591,14 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -616,16 +616,16 @@
       <c r="E2">
         <v>129929</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="18"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="16"/>
       <c r="M2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -643,15 +643,15 @@
       <c r="E3">
         <v>4039993</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -659,7 +659,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -669,11 +669,11 @@
         <f>B2/B$5</f>
         <v>0.97665205339904504</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="8">
         <f>C2/C$5</f>
         <v>5.8687372913189484E-2</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="6">
         <f t="shared" ref="M4:N4" si="0">D2/D$5</f>
         <v>0.99526966065831157</v>
       </c>
@@ -684,7 +684,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <f>SUM(B2:B3)</f>
@@ -702,7 +702,7 @@
         <f>SUM(E2:E3)</f>
         <v>4169922</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
@@ -710,11 +710,11 @@
         <f>B3/B$5</f>
         <v>2.3347946600954989E-2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="8">
         <f>C3/C$5</f>
         <v>0.94131262708681052</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="6">
         <f t="shared" ref="M5:N5" si="1">D3/D$5</f>
         <v>4.7303393416883981E-3</v>
       </c>
@@ -732,37 +732,37 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="5" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="18"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="16"/>
       <c r="M11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -770,7 +770,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -780,11 +780,11 @@
         <f>_xlfn.CONCAT(B2, " (", ROUND(K4,3)*100, "%)")</f>
         <v>6270072 (97.7%)</v>
       </c>
-      <c r="L13" s="16" t="str">
+      <c r="L13" s="8" t="str">
         <f t="shared" ref="L13:N13" si="2">_xlfn.CONCAT(C2, " (", ROUND(L4,3)*100, "%)")</f>
         <v>322156 (5.9%)</v>
       </c>
-      <c r="M13" s="14" t="str">
+      <c r="M13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>9057777 (99.5%)</v>
       </c>
@@ -794,7 +794,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I14" s="6"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="3" t="s">
         <v>7</v>
       </c>
@@ -802,11 +802,11 @@
         <f>_xlfn.CONCAT(B3, " (", ROUND(K5,3)*100, "%)")</f>
         <v>149893 (2.3%)</v>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="8" t="str">
         <f t="shared" ref="L14:N14" si="3">_xlfn.CONCAT(C3, " (", ROUND(L5,3)*100, "%)")</f>
         <v>5167202 (94.1%)</v>
       </c>
-      <c r="M14" s="14" t="str">
+      <c r="M14" s="6" t="str">
         <f t="shared" si="3"/>
         <v>43050 (0.5%)</v>
       </c>
@@ -817,16 +817,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I1:J3"/>
     <mergeCell ref="I10:J12"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/model_paper/confusion.xlsx
+++ b/model_paper/confusion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/riparian-id/model_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E208DF-5EE5-45F4-AB61-6A179D17FBB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70416563-00A4-244B-B7F3-823ACC67B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="10160" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>treesA</t>
   </si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>Validation</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -256,24 +262,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,6 +273,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,15 +576,15 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,16 +597,16 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -616,18 +622,18 @@
       <c r="E2">
         <v>129929</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,8 +649,8 @@
       <c r="E3">
         <v>4039993</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
@@ -658,8 +664,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I4" s="18" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -682,7 +688,7 @@
         <v>3.115861639618199E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -702,7 +708,7 @@
         <f>SUM(E2:E3)</f>
         <v>4169922</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
@@ -723,7 +729,7 @@
         <v>0.968841383603818</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -731,31 +737,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="15" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="15" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="3" t="s">
         <v>6</v>
       </c>
@@ -769,8 +775,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I13" s="18" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -793,8 +799,8 @@
         <v>129929 (3.1%)</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="I14" s="18"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I14" s="12"/>
       <c r="J14" s="3" t="s">
         <v>7</v>
       </c>
@@ -817,16 +823,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I10:J12"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I1:J3"/>
-    <mergeCell ref="I10:J12"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
